--- a/Masterarbeit/Auswertungen/Datensammlung_diemangebrauchenkann.xlsx
+++ b/Masterarbeit/Auswertungen/Datensammlung_diemangebrauchenkann.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.oberroehrmann\Documents\Messdaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.oberroehrmann\Documents\GitHub\Master-s-Thesis\Masterarbeit\Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8990376-304C-4289-9298-3DF5F289023A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E59D09-4E38-4F00-BEDC-1E8C8DB616B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{944C2AFD-4F65-408D-8CFA-E731EA682F22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11175" xr2:uid="{944C2AFD-4F65-408D-8CFA-E731EA682F22}"/>
   </bookViews>
   <sheets>
     <sheet name="Perovskite Solar Cell Datas" sheetId="1" r:id="rId1"/>
     <sheet name="PCO Sensicam qe" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,29 +26,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>Parameters and Units</t>
   </si>
   <si>
-    <t>Perovskite</t>
-  </si>
-  <si>
-    <t>Spiro-OMeTAD (HTL)</t>
-  </si>
-  <si>
-    <t>SnO2 (ETL)</t>
+    <t>Glas</t>
+  </si>
+  <si>
+    <t>ITO (annealed)</t>
+  </si>
+  <si>
+    <t>HTL (Spiro-TTB)</t>
+  </si>
+  <si>
+    <t>MAPbI3</t>
+  </si>
+  <si>
+    <t>ETL (BCP)</t>
+  </si>
+  <si>
+    <t>ETL (C60)</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
   <si>
     <t>Thickness (nm)</t>
   </si>
   <si>
+    <t>0,7 mm</t>
+  </si>
+  <si>
     <t>Electron affinity (eV)</t>
   </si>
   <si>
+    <t>3,3-4,45</t>
+  </si>
+  <si>
     <t>Bandgap (eV)</t>
   </si>
   <si>
+    <t>HOMO</t>
+  </si>
+  <si>
     <t>Dielectric permittivity (relative)</t>
   </si>
   <si>
@@ -64,22 +85,55 @@
     <t>Hole mobility (cm^2/Vs)</t>
   </si>
   <si>
+    <t>Mobility (cm^2/vs)</t>
+  </si>
+  <si>
+    <t>Resistivity (Ohm cm)</t>
+  </si>
+  <si>
     <t>Shallow uniform donor density N_D (cm^-3)</t>
   </si>
   <si>
     <t>Adsorption constant A (1/cm eV^(1/2))</t>
   </si>
   <si>
+    <t>ref</t>
+  </si>
+  <si>
     <t>Adsorption constant B (eV^(1/2)/cm)</t>
   </si>
   <si>
+    <t>R_S (Ohm/sq)</t>
+  </si>
+  <si>
+    <t>Epsilon opt</t>
+  </si>
+  <si>
     <t>Electron thermal velocity (cm/s)</t>
   </si>
   <si>
     <t>Hole thermal velocity (cm/s)</t>
   </si>
   <si>
-    <t>Ref</t>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1155/2013/408182</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acsenergylett.6b00270</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>10.1103/PhysRevB.64.233111</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1063/1.4889843</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1063/1.371579</t>
   </si>
   <si>
     <t>System Data sensicam qe from sensicam manual</t>
@@ -139,12 +193,15 @@
     <t>4…5</t>
   </si>
   <si>
+    <t>electrons (Gain High)</t>
+  </si>
+  <si>
+    <t>Gain High oder Gain Low??</t>
+  </si>
+  <si>
     <t>5..6</t>
   </si>
   <si>
-    <t>electrons (Gain High)</t>
-  </si>
-  <si>
     <t>electrons (Gain Low)</t>
   </si>
   <si>
@@ -178,18 +235,15 @@
     <t>290 … 1000 nm</t>
   </si>
   <si>
+    <t>Ist color oder monochrome eine Einstellung?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spectral response (color) </t>
   </si>
   <si>
     <t>RGB primary colors</t>
   </si>
   <si>
-    <t>Ist color oder monochrome eine Einstellung?</t>
-  </si>
-  <si>
-    <t>Gain High oder Gain Low??</t>
-  </si>
-  <si>
     <t>Average Dark Charge</t>
   </si>
   <si>
@@ -208,12 +262,12 @@
     <t>&lt; 0.005%</t>
   </si>
   <si>
+    <t>Anti Blooming</t>
+  </si>
+  <si>
     <t>max. 100</t>
   </si>
   <si>
-    <t>Anti Blooming</t>
-  </si>
-  <si>
     <t>CCD Quality</t>
   </si>
   <si>
@@ -247,18 +301,21 @@
     <t>Warm Pixels</t>
   </si>
   <si>
+    <t>Warm Pixels are pixels with increased dark current generation</t>
+  </si>
+  <si>
     <t># pixels &gt; 100 e-</t>
   </si>
   <si>
     <t># pixels &gt; 5 e-</t>
   </si>
   <si>
+    <t>0…2</t>
+  </si>
+  <si>
     <t># pixels &gt; 1 e-</t>
   </si>
   <si>
-    <t>0…2</t>
-  </si>
-  <si>
     <t>500…2000</t>
   </si>
   <si>
@@ -320,9 +377,6 @@
   </si>
   <si>
     <t>mm</t>
-  </si>
-  <si>
-    <t>Warm Pixels are pixels with increased dark current generation</t>
   </si>
   <si>
     <t>test low light mode for measurements??</t>
@@ -332,13 +386,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -349,7 +409,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -357,16 +417,282 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -747,97 +1073,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF283FB3-AB9F-4058-B7AF-F5EA09E56CFE}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5"/>
+    <col min="3" max="3" width="32.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="3" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="2" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C2" s="18">
+        <v>180</v>
+      </c>
+      <c r="D2" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E2" s="18">
+        <v>500</v>
+      </c>
+      <c r="F2" s="18">
+        <v>8</v>
+      </c>
+      <c r="G2" s="18">
+        <v>23</v>
+      </c>
+      <c r="H2" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D3" s="2">
+        <v>-2.23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-3.9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-5.9</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D4" s="3">
+        <f>D5-D3</f>
+        <v>-2.9200000000000004</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:G4" si="0">E5-E3</f>
+        <v>-1.5000000000000004</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <v>-5.15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-5.4</v>
+      </c>
+      <c r="F5" s="18">
+        <v>-7</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-4.2</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1.97E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="24">
+        <v>2.1900000000000001E-4</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14">
+        <v>11</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -849,11 +1412,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB5F689-3A80-41C9-B3E3-04C13E496ED4}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
@@ -862,116 +1425,116 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>18000</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,56 +1542,56 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>1.4305555555555556</v>
@@ -1036,71 +1599,71 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1108,39 +1671,39 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="2">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1148,86 +1711,86 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>17.920000000000002</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B46">
         <v>9.5</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Masterarbeit/Auswertungen/Datensammlung_diemangebrauchenkann.xlsx
+++ b/Masterarbeit/Auswertungen/Datensammlung_diemangebrauchenkann.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.oberroehrmann\Documents\GitHub\Master-s-Thesis\Masterarbeit\Auswertungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomml\Documents\GitHub\Master-s-Thesis\Masterarbeit\Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E59D09-4E38-4F00-BEDC-1E8C8DB616B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E422B5-6F63-4119-BF3A-A9C09412C6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11175" xr2:uid="{944C2AFD-4F65-408D-8CFA-E731EA682F22}"/>
+    <workbookView xWindow="15510" yWindow="1725" windowWidth="11280" windowHeight="11385" activeTab="1" xr2:uid="{944C2AFD-4F65-408D-8CFA-E731EA682F22}"/>
   </bookViews>
   <sheets>
     <sheet name="Perovskite Solar Cell Datas" sheetId="1" r:id="rId1"/>
-    <sheet name="PCO Sensicam qe" sheetId="2" r:id="rId2"/>
+    <sheet name="AFORS-HET" sheetId="3" r:id="rId2"/>
+    <sheet name="PCO Sensicam qe" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="147">
   <si>
     <t>Parameters and Units</t>
   </si>
@@ -61,9 +71,6 @@
     <t>Electron affinity (eV)</t>
   </si>
   <si>
-    <t>3,3-4,45</t>
-  </si>
-  <si>
     <t>Bandgap (eV)</t>
   </si>
   <si>
@@ -380,6 +387,96 @@
   </si>
   <si>
     <t>test low light mode for measurements??</t>
+  </si>
+  <si>
+    <t>Perovskite Solar Cell Simulation data taken from 2021 Device simulation of all-perovskite soalr cells.</t>
+  </si>
+  <si>
+    <t>Hole mobility</t>
+  </si>
+  <si>
+    <t>relative permittivity</t>
+  </si>
+  <si>
+    <t>Bandgap</t>
+  </si>
+  <si>
+    <t>doping</t>
+  </si>
+  <si>
+    <t>LUMO</t>
+  </si>
+  <si>
+    <t>ITO</t>
+  </si>
+  <si>
+    <t>Spiro-TTB</t>
+  </si>
+  <si>
+    <t>Pero</t>
+  </si>
+  <si>
+    <t>BCP</t>
+  </si>
+  <si>
+    <t>Electron mobility in Spiro-TTB was assumed to be 0</t>
+  </si>
+  <si>
+    <t>Thickness (cm)</t>
+  </si>
+  <si>
+    <t>Gap State levels (eV)</t>
+  </si>
+  <si>
+    <t>HOMO (eV)</t>
+  </si>
+  <si>
+    <t>Density of states VB</t>
+  </si>
+  <si>
+    <t>C60 (1nm)</t>
+  </si>
+  <si>
+    <t>Carrier Mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>2019 Understanding BCP and C60</t>
+  </si>
+  <si>
+    <t>Density of states (m^-3)</t>
+  </si>
+  <si>
+    <t>2019 Improving peros Insight from validated device model</t>
+  </si>
+  <si>
+    <t>Electron and hole capture coeff (m^3/s)</t>
+  </si>
+  <si>
+    <t>Density of states Nc CB</t>
+  </si>
+  <si>
+    <t>density rho (gcm^-3)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>density einfach standard gelassen</t>
+  </si>
+  <si>
+    <t>thermal velcity bei 1e7 gelassen</t>
+  </si>
+  <si>
+    <t>nk properties!!!</t>
+  </si>
+  <si>
+    <t>DOS (cm^-3)</t>
   </si>
 </sst>
 </file>
@@ -401,15 +498,27 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -659,11 +768,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -693,6 +837,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1075,11 +1236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF283FB3-AB9F-4058-B7AF-F5EA09E56CFE}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,52 +1304,57 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29">
+        <v>-4.3</v>
+      </c>
+      <c r="D3" s="29">
+        <v>-2.23</v>
+      </c>
+      <c r="E3" s="29">
+        <v>-3.9</v>
+      </c>
+      <c r="F3" s="29">
+        <v>-3.5</v>
+      </c>
+      <c r="G3" s="29">
+        <v>-5.9</v>
+      </c>
+      <c r="H3" s="29">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
-        <v>-2.23</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-3.9</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-3.5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-5.9</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33">
         <f>D5-D3</f>
         <v>-2.9200000000000004</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="33">
         <f t="shared" ref="E4:G4" si="0">E5-E3</f>
         <v>-1.5000000000000004</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="33">
         <f t="shared" si="0"/>
         <v>-3.5</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="33">
         <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
       </c>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -1208,12 +1374,12 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
@@ -1225,7 +1391,7 @@
     </row>
     <row r="8" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -1237,7 +1403,7 @@
     </row>
     <row r="9" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1249,7 +1415,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="10">
         <v>1.97E-3</v>
@@ -1257,7 +1423,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
         <v>69.3</v>
@@ -1265,7 +1431,7 @@
     </row>
     <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="24">
@@ -1279,25 +1445,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14">
@@ -1311,7 +1477,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <v>4.51</v>
@@ -1319,7 +1485,7 @@
     </row>
     <row r="18" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
@@ -1331,7 +1497,7 @@
     </row>
     <row r="19" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -1343,14 +1509,14 @@
     </row>
     <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1359,19 +1525,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1409,6 +1575,361 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36608D0C-FFD4-4A19-B24D-E7D3B3061D26}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="38">
+        <v>100</v>
+      </c>
+      <c r="C3" s="38">
+        <v>100</v>
+      </c>
+      <c r="D3" s="38">
+        <v>10</v>
+      </c>
+      <c r="E3" s="39">
+        <v>500</v>
+      </c>
+      <c r="F3" s="39">
+        <v>8</v>
+      </c>
+      <c r="G3" s="39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="38">
+        <f>B3*0.0000001</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+      <c r="C4" s="38">
+        <f t="shared" ref="C4:G4" si="0">C3*0.0000001</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+      <c r="D4" s="38">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E4" s="38">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999996E-5</v>
+      </c>
+      <c r="F4" s="38">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="G4" s="38">
+        <f t="shared" si="0"/>
+        <v>2.3E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="37">
+        <v>1.5999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="37">
+        <v>1E-13</v>
+      </c>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1.97E-3</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="37">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1E-4</v>
+      </c>
+      <c r="F8" s="37">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="G8" s="37">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10">
+        <v>-5.3</v>
+      </c>
+      <c r="C10">
+        <v>-4.8</v>
+      </c>
+      <c r="D10">
+        <v>-5.15</v>
+      </c>
+      <c r="E10">
+        <v>-5.4</v>
+      </c>
+      <c r="F10">
+        <v>-6.2</v>
+      </c>
+      <c r="G10">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
+        <v>-2.23</v>
+      </c>
+      <c r="E11">
+        <v>-3.9</v>
+      </c>
+      <c r="F11">
+        <v>-4.2</v>
+      </c>
+      <c r="G11">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
+        <v>2.92</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="40">
+        <v>-3.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="40">
+        <v>-4.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="37">
+        <v>8.1E+24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="37">
+        <v>8.1E+24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="37">
+        <f>E18*0.000001</f>
+        <v>8.1E+18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="43">
+        <v>1.8E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="43">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>4.25</v>
+      </c>
+      <c r="G26">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB5F689-3A80-41C9-B3E3-04C13E496ED4}">
   <dimension ref="A1:D77"/>
   <sheetViews>
@@ -1425,116 +1946,116 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>18000</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1542,56 +2063,56 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
         <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
       </c>
       <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>1.4305555555555556</v>
@@ -1599,71 +2120,71 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
         <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
         <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
         <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
         <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
         <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
         <v>86</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
         <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
         <v>90</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1671,31 +2192,31 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
         <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
         <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
         <v>97</v>
-      </c>
-      <c r="B33" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1">
         <v>6.0000000000000001E-3</v>
@@ -1703,7 +2224,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1711,86 +2232,86 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
         <v>102</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
         <v>104</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
         <v>106</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B45">
         <v>17.920000000000002</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>9.5</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Masterarbeit/Auswertungen/Datensammlung_diemangebrauchenkann.xlsx
+++ b/Masterarbeit/Auswertungen/Datensammlung_diemangebrauchenkann.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomml\Documents\GitHub\Master-s-Thesis\Masterarbeit\Auswertungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.oberroehrmann\Documents\GitHub\Master-s-Thesis\Masterarbeit\Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E422B5-6F63-4119-BF3A-A9C09412C6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B8B9A2-08AE-41C2-A35A-A1DC294ACE0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15510" yWindow="1725" windowWidth="11280" windowHeight="11385" activeTab="1" xr2:uid="{944C2AFD-4F65-408D-8CFA-E731EA682F22}"/>
   </bookViews>
@@ -22,21 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t>Parameters and Units</t>
   </si>
@@ -477,6 +468,21 @@
   </si>
   <si>
     <t>DOS (cm^-3)</t>
+  </si>
+  <si>
+    <t>Zelllänge [cm]</t>
+  </si>
+  <si>
+    <t>Flächenwiderstand ITO [Ohm]</t>
+  </si>
+  <si>
+    <t>Freies ITO bis Metallisierung [cm]</t>
+  </si>
+  <si>
+    <t>Serienwiderstand durch ITO [Ohmcm²]</t>
+  </si>
+  <si>
+    <t>Spezifischer Widerstand ITO [Ohm*m]</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +523,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -807,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -834,9 +846,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -854,6 +863,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1304,53 +1319,53 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28">
         <v>-4.3</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>-2.23</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <v>-3.9</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>-3.5</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>-5.9</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <v>-5.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32">
         <f>D5-D3</f>
         <v>-2.9200000000000004</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <f t="shared" ref="E4:G4" si="0">E5-E3</f>
         <v>-1.5000000000000004</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <f t="shared" si="0"/>
         <v>-3.5</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -1576,13 +1591,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36608D0C-FFD4-4A19-B24D-E7D3B3061D26}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,79 +1607,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:7" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>100</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>100</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>10</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>500</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>8</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <f>B3*0.0000001</f>
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <f t="shared" ref="C4:G4" si="0">C3*0.0000001</f>
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <f t="shared" si="0"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <f t="shared" si="0"/>
         <v>4.9999999999999996E-5</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <f t="shared" si="0"/>
         <v>7.9999999999999996E-7</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <f t="shared" si="0"/>
         <v>2.3E-6</v>
       </c>
@@ -1676,10 +1691,10 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>0.05</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
@@ -1687,22 +1702,22 @@
       <c r="A6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>1E-13</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>1.97E-3</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>0.05</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="G7">
@@ -1713,16 +1728,16 @@
       <c r="A8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>1E-4</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <v>2.0000000000000001E-9</v>
       </c>
     </row>
@@ -1801,12 +1816,12 @@
       <c r="A13" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <v>-3.93</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <v>-4.32</v>
       </c>
     </row>
@@ -1819,7 +1834,7 @@
       <c r="A16" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>8.1E+24</v>
       </c>
     </row>
@@ -1832,7 +1847,7 @@
       <c r="A18" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>8.1E+24</v>
       </c>
     </row>
@@ -1840,7 +1855,7 @@
       <c r="A19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <f>E18*0.000001</f>
         <v>8.1E+18</v>
       </c>
@@ -1871,18 +1886,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="36"/>
+      <c r="D22" s="35"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="42">
         <v>1.8E-5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="43">
+      <c r="D24" s="42">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
@@ -1921,6 +1936,51 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" s="45"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="46">
+        <v>1.5120000000000001E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="44">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38">
+        <f>(1/3*B36+B37)*B36*B35</f>
+        <v>4.4800000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2086,7 @@
       <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2037,7 +2097,7 @@
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2086,7 +2146,7 @@
       <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2097,7 +2157,7 @@
       <c r="B19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="43"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
